--- a/src/empty_2026-2027.xlsx
+++ b/src/empty_2026-2027.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{8ADB69AB-F35D-425B-917C-70E09C42182D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{969F45AB-9BBD-48AB-B48A-DE69676468DB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8391F29F-601B-4D9F-8DFE-508C88BCAE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11295" tabRatio="488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ΜΑΘΗΤΕΣ" sheetId="1" r:id="rId1"/>
@@ -3179,7 +3179,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G2" sqref="G2"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3468,7 +3468,7 @@
       <c r="L26" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <picture r:id="rId2"/>
@@ -3853,13 +3853,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{804D4CE0-8BCE-4709-9C59-82FAEFD8C32F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{804D4CE0-8BCE-4709-9C59-82FAEFD8C32F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4aa82662-b76e-431d-9830-7459ad821029"/>
+    <ds:schemaRef ds:uri="dfdc50e5-0e2f-487a-a579-9ba217f9c9a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACF786A6-F1C4-4E73-96D9-77AE2D793BB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACF786A6-F1C4-4E73-96D9-77AE2D793BB6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EE8F9F2-553C-4779-B3A7-F8FE747CE7C2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EE8F9F2-553C-4779-B3A7-F8FE747CE7C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4aa82662-b76e-431d-9830-7459ad821029"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>